--- a/Products.xlsx
+++ b/Products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="392">
   <si>
     <t>thumbnail</t>
   </si>
@@ -49,9 +49,6 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>https://images.meesho.com/images/products/274410128/vtnig_400.webp</t>
-  </si>
-  <si>
     <t>3.6</t>
   </si>
   <si>
@@ -878,12 +875,330 @@
   </si>
   <si>
     <t>Watch</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/s/1/s/-original-imagz5pfzzfbjrhd.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Engage Luxury Perfume Gift Set, Pack of 4 (25mlx4), Tra...</t>
+  </si>
+  <si>
+    <t>Perfume</t>
+  </si>
+  <si>
+    <t>Unbox a treasure of little luxuries with our Unisex Luxury Perfume Set that makes for the perfect gift for everyone. An arsenal of indulgence, this box set carries some of Bella Vita Organic's most iconic fragrances. A little bit about the fragrances in the Bella Vita Organic Unisex Luxury Perfume Set: White Oud: The Spice Odyssey. Charmed by the tangy Artemisian Lemon at the top, freesias at its heart and amber at its base, The White Oud is a revelation of all things 'sweet' and 'spice'! Skai: Exudes Freshness and Sophistication.</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/u/z/t/-original-imagz6vmzf7yzf7g.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic White Oud ,Long Lasting,Unisex Eau d...</t>
+  </si>
+  <si>
+    <t>BEGIN YOUR RULE. Be prepared to captivate the senses of one and all with the powerful enigma of Beardo Godfather EDP. Beardo Godfather perfume has an alluring and authoritative appeal that instantly overshadows ordinary perfumes. Beardo Godfather is created to be versatile for all occasions, yet it is sure to make you stand out. Its unique and powerful scent is fit to be used during day as well as night. It is a unique combination of citrus and spicy notes which make it fit for all seasons too.</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/q/a/s/80-sporting-club-edp-srk-s-favorite-luxury-gift-pack-20ml-x-4-original-imagtujyzvfsjdex.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>DENVER Sporting Club EDP- SRK's Favorite Luxury Gift Pa...</t>
+  </si>
+  <si>
+    <t>'''''The Spice Odyssey. Charmed by the tangy Artemisian Lemon at the top, delicately distinct freesias at its heart amidst the enchanting amber and musk at its base, The White Oud is a revelation of all things 'sweet' and 'spice'! This is a blend of extremes, where the best of both worlds come together to create a perennially calming experience!"""</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/2/w/x/80-luxury-perfume-gift-set-with-long-lasting-fragrance-eau-de-original-imagtchgawhsdu5b.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic Luxury Perfume Gift Set with Long La...</t>
+  </si>
+  <si>
+    <t>THE LITERAL SMELL OF SOPHISTICATION! Your quest for rare, exotic, and distinctive fragrance ends with Beardo Whiskey Smoke Eau De Parfum for men. This artisanal perfume features a unique blend of fragrance from Whiskey along with exotic Oud wood, Tobacco, Cinnamon and indulgent Vanilla. To call this perfume strong and long-lasting would be an understatement, this fragrance is for them who want to get noticed and make bold entrances wherever they go.</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/w/v/q/100-skai-aquatic-perfume-for-men-women-with-musky-fresh-scent-original-imagz6hyhc94hzjn.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic SKAI AQUATIC Perfume For Men &amp; Women...</t>
+  </si>
+  <si>
+    <t>"Unbox a treasure of little luxuries with our Men's Luxury Perfume Gift Set that makes for the perfect gift for everyone. An arsenal of indulgence, this box set carries some of Bella Vita Luxury's most iconic fragrances. A little bit about the fragrances in the Bella Vita Luxury Men's Perfume Gift Set: CEO Man EDP - Perfect for everyday wear, CEO MAN Eau De Parfum elevates the 'CEO' in you! Top lemon note energises with Lavendar at its heart to honour vetiver as the base. This perfume celebrates individuality, with the 'CEO' touch added to it!</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/1/n/m/200-big-shot-jazz-club-and-big-shot-privee-for-men-2x100ml-eau-original-imagrv9vbynftsyh.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>OSCAR Big Shot Jazz Club And Big Shot Privee (2x100ml) ...</t>
+  </si>
+  <si>
+    <t>Unbox a treasure of little luxuries with our Men's Luxury Perfume Gift Set that makes for the perfect gift for everyone. An arsenal of indulgence, this box set carries some of Bella Vita Luxury's most iconic fragrances. A little bit about the fragrances in the Bella Vita Luxury Men's Perfume Gift Set: CEO Man EDP - Perfect for everyday wear, CEO MAN Eau De Parfum elevates the 'CEO' in you! Top lemon note energises with Lavendar at its heart to honour vetiver as the base.</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/4/1/x/-original-imagwfhxjcfmzgq8.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Wild Stone Hydra Energy Eau de Parfum  -  100 ml</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/kzu6efk0/perfume/u/z/v/-original-imagbr74sgyfvswb.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>PARK AVENUE Voyage Amazon Woods Eau de Parfum  -  120 m...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/c/v/7/-original-imagz6vnfjxfawc6.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic Fresh Eau De Toilette Unisex Perfume...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/j/c/h/60-u-r-sweet-lovely-pack-of-2-eau-de-parfum-ramsons-women-original-imaguss92vy7ycnt.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>RAMSONS U R Sweet &amp; Lovely Pack of 2 Eau de Parfum  -  ...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/j/z/m/-original-imagszbdrtz8ngxk.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>PureSense Opulence Perfume Gift Set (Silk + Velvet + Sa...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/o/p/j/-original-imaguaahecua4v5x.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>BEARDO Whisky Smoke EDP Perfume for Men 50ml | EAU DE P...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/l1tmf0w0/perfume/y/j/p/20-white-oud-eau-de-parfum-long-lasting-unisex-eau-de-parfum-original-imagdaragfufxyda.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic White Oud, Long Lasting , Unisex Eau...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/4/c/t/20-date-women-perfume-with-notes-of-pink-pepper-red-fruits-long-original-imagrhd2ctwwfjfj.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic DATE Women Perfume with Notes of Pin...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/d/y/i/80-cobra-perfume-long-lasting-80-ml-eau-de-parfum-st-john-men-original-imagws5yuyqu3zwr.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>ST-JOHN Cobra Perfume Long Lasting Eau de Parfum  -  80...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/w/m/r/100-klub-men-perfume-with-notes-of-lemon-pineapple-apple-long-original-imagz6hwjx3phgfg.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic KLUB MEN perfume with Notes of lemon...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/deodorant/x/t/t/50-edge-perfume-50ml-1-body-spray-wild-stone-men-original-imagu6f4kaauk86h.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Wild Stone Edge Perfume Eau de Parfum  -  50 ml</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/n/l/n/100-follow-fragrances-attitude-pirates-and-legend-48hrs-3-each-original-imagz7tqfzgpnjhe.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Girnar Follow Fragrances Attitude Luxury Long Lasting E...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/l1tmf0w0/perfume/r/b/z/20-ros-eau-de-parfum-with-long-lasting-floral-fragrance-for-original-imagdarydyaxtcya.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic Rosè Eau De Parfum With Long Lasting...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/c/0/o/30-gentle-parfum-luxurious-long-lasting-fragrance-upto-12-hours-original-imagrz3ar9azu5vc.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>BERGAMOT BEAUTE Gentleman Parfum Luxurious Long Lasting...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/0/f/7/80-luxury-unisex-perfume-gift-set-for-men-women-4x20-ml-eau-de-original-imagtchhbpamzpgz.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic Luxury Unisex Perfume Gift Set - 4x2...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/8/6/s/80-mens-perfume-gift-set-4x20-ml-perfumes-luxury-scent-with-long-original-imagtchhth76eyak.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic Gift Set 4x20 ml Luxury Scent with L...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/shopsy-perfume/q/v/h/100-ceo-man-perfume-for-men-long-lasting-with-notes-of-tonka-original-imagzkys9h7gx3wz.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic CEO MAN Eau De Parfum,Long Lasting N...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/f/s/z/-original-imagrk7msgeegjbs.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>BEARDO Godfather Perfume Eau de Parfum  -  100 ml</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/g/2/b/-original-imaguaahyshf5u4z.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>BEARDO Whisky Smoke EDP Eau de Parfum  -  100 ml</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/6/w/9/40-fresh-perfume-skai-aquatic-perfume-combo-2x20ml-with-citrus-original-imagz5gdyggcjrjb.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic FRESH perfume &amp; SKAI AQUATIC perfume...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/7/n/i/80-perfume-for-men-gift-set-pack-of-4x20-ml-premium-luxury-long-original-imagy2zzmdkruupn.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>DJOKR Perfume Gift Set Pack of 4x20 ML , Premium Luxury...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/o/e/v/80-20ml-4-perfect-combo-snake-classic-oud-hydra-eau-de-parfum-original-imagjr4hkwj9vkgt.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>VILLAIN 20ml perfect combo04 snake+classic+oud+hydra Ea...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/l1tmf0w0/perfume/1/j/z/20-honey-oud-perfume-for-men-women-with-honey-floral-oud-scent-original-imagdatvungffcf9.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic Honey OUD Perfume For Men &amp; Women wi...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/perfume/k/w/c/100-honey-oud-with-honey-floral-oud-scent-edp-fragrance-eau-de-original-imagz6hggpxhdztf.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Bella vita organic Honey OUD with Honey, Floral &amp; Oud S...</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/u/e/r/earbuds-m90-pro-upto-48-hours-playback-with-asap-charge-tunifi-original-imagg9spnhhknseg.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/k20r8nk0/headphone/7/w/c/realme-buds-2-original-imafhgrckbygsyrk.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/b/0/e/a135-m10-wireless-earbuds-1200mah-battery-true-wireless-original-imagyh8ygkuagehw.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/h/2/k/-original-imaghe5mtuu35bhk.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/kwxv98w0/headphone/s/c/j/-original-imag9hxj7qmmyqmh.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/9/h/1/-original-imagzt2acthhaayy.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/8/2/m/-original-imagz5z5jshnhvrp.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/w/t/q/-original-imagr4t8zuq2wzhe.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/p/r/z/enco-buds-2-oppo-original-imagh9frfp7gxdb3.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/b/m/d/-original-imagzt296wgqehfb.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>Tunifi Earbuds M90 PRO Upto 48 Hours Playback with ASAP...</t>
+  </si>
+  <si>
+    <t>realme Buds 2 Wired Headset</t>
+  </si>
+  <si>
+    <t>BAYEEN A135 M10 (Wireless Earbuds)1200mAh Battery True ...</t>
+  </si>
+  <si>
+    <t>realme Techlife Buds T100 with up to 28 Hours Playback ...</t>
+  </si>
+  <si>
+    <t>truke Air Buds Lite with Quad Mic ENC, 10mm Driver, Ear...</t>
+  </si>
+  <si>
+    <t>truke Buds Q1 Lite with Quad-Mic ENC, 48H Playtime, Roy...</t>
+  </si>
+  <si>
+    <t>boAt Airdopes Supreme w/ 4 Mics AI ENx Tech, 50 HRS Pla...</t>
+  </si>
+  <si>
+    <t>OnePlus Nord Buds 2r in Ear Earbuds with Dual Mic &amp; AI ...</t>
+  </si>
+  <si>
+    <t>OPPO Enco Buds 2 with 28 hours Battery life &amp; Deep Nois...</t>
+  </si>
+  <si>
+    <t>Earbuds</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/d/j/9/m2316e1-redmi-original-imagxmxfshcftc9c.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/kq6yefk0/headphone/q/r/b/buds-2-neo-realme-original-imag4925fcqwvgar.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/v/f/m/-original-imagz5z4cknamu9d.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/ksqeky80/headphone/x/r/m/rma2011-realme-original-imag68fe7xdnavuh.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/3/b/d/m2316e1-redmi-original-imagxmxj7zfftbcy.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/s/t/q/-original-imagkx7juz9scgga.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/g/m/b/a1994-m10-heavy-quality-enc-technolegy-96hrs-back-up-time-with-original-imagyh8fxt6yz3df.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/6/b/l/-original-imagtyp3bdgnwyby.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/j/t/c/-original-imaghbdup9jbrdzh.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>https://rukminim2.flixcart.com/image/612/612/xif0q/headphone/s/9/x/-original-imagzt29t4vhkgn3.jpeg?q=70</t>
+  </si>
+  <si>
+    <t>REDMI Buds 5 with 46dB Hybrid Active Noise Cancellation...</t>
+  </si>
+  <si>
+    <t>realme Buds 2 Neo With HD Mic Wired Headset</t>
+  </si>
+  <si>
+    <t>realme Buds Wireless 2 Neo with Type-C Fast Charge &amp; Ba...</t>
+  </si>
+  <si>
+    <t>truke Buds S2 Lite with Quad-Mic ENC, 48H Playtime, Mad...</t>
+  </si>
+  <si>
+    <t>Khatusha A1994 M10 Heavy quality &amp; ENC technolegy 96hrs...</t>
+  </si>
+  <si>
+    <t>OnePlus Nord Buds 2r True Wireless in Ear Earbuds with ...</t>
+  </si>
+  <si>
+    <t>The OnePlus Nord Buds 2 will be music to your ears with big 12.4 mm dynamic drivers for deeper bass &amp; crisp clear sound.For the OnePlus Nord Buds 2, you get to choose how heavy or light you want your sound with the help of sound master equalizer's 3 unique audio profiles -Balance, Vocal &amp; Transparent.The flagship-level battery life for the all-new OnePlus Nord Buds 2 delivers up to 36 hrs of non-stop music on a single charge.BassWave bass enhancement algorithm endows deep and broad bass to earbuds with fidelity.</t>
+  </si>
+  <si>
+    <t>If truly wireless is your vibe, the realme TechLife Buds T100 are sure to be your new best buds! The 10mm dynamic bass driver and Dirac technology ensures an immersive sound experience across all genres. With 28 hours total playback, you can keep your buds going for the long haul. You can even take crystal clear calls thanks to its AI ENC technology. The realme TechLife Buds T100 also have low latency of 88 ms and Bluetooth 5.3 compatibility, and many more amazing features, making them perfect for any activity.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -948,7 +1263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -982,6 +1297,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1284,15 +1606,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="167.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
@@ -1302,7 +1625,7 @@
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1662,7 @@
         <v>183</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
@@ -1351,30 +1674,30 @@
         <v>34</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>278</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="G3" s="1">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>102</v>
@@ -1382,181 +1705,181 @@
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="G4" s="1">
-        <v>87</v>
+        <v>4.3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>56</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>167</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="1">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>197</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E5" s="1">
-        <v>9</v>
-      </c>
       <c r="F5" s="1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G5" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="G6" s="2">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4.7</v>
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G7" s="2">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>319</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G8" s="2">
         <v>23</v>
       </c>
-      <c r="C8" s="1">
-        <v>278</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G8" s="2">
-        <v>65</v>
-      </c>
       <c r="H8" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
-        <v>319</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3.9</v>
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G9" s="2">
-        <v>23</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>101</v>
+        <v>86</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E10" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>279</v>
@@ -1564,735 +1887,735 @@
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <v>108</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1">
-        <v>202</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E11" s="1">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G11" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>280</v>
       </c>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E12" s="2">
-        <v>12</v>
+        <v>285</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E13" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>283</v>
       </c>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E15" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E16" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>279</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E18" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E19" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G19" s="2">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E20" s="1">
         <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G20" s="2">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E21" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G21" s="2">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E22" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G22" s="2">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E23" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E24" s="1">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G24" s="2">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E25" s="1">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G25" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E26" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G26" s="2">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>286</v>
       </c>
       <c r="E27" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="2">
         <v>23</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="2">
+        <v>53</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1">
+        <v>134</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="2">
+        <v>63</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="1">
-        <v>224</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E28" s="1">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="2">
-        <v>23</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="1">
-        <v>75</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E29" s="1">
-        <v>8</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="2">
-        <v>53</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C30" s="1">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E30" s="1">
         <v>9</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E31" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G31" s="2">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C32" s="1">
+        <v>175</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="E32" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="2">
+        <v>85</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G32" s="2">
-        <v>75</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E33" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G33" s="2">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E34" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G34" s="2">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E35" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G35" s="2">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E36" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E37" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="G37" s="2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C38" s="1">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E38" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="G38" s="2">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2300,25 +2623,25 @@
         <v>88</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="1">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E39" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2326,77 +2649,77 @@
         <v>89</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C40" s="1">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E40" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G40" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E41" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="G41" s="2">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1">
-        <v>253</v>
+        <v>140</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E42" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G42" s="2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2404,77 +2727,77 @@
         <v>94</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C43" s="1">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E43" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G43" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="1">
+        <v>212</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="1">
+        <v>14</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="2">
+        <v>86</v>
+      </c>
+      <c r="H44" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="1">
-        <v>144</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E44" s="1">
-        <v>8</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="2">
-        <v>75</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C45" s="1">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E45" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G45" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2482,181 +2805,181 @@
         <v>99</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C46" s="1">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E46" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>100</v>
+      <c r="A47" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C47" s="1">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E47" s="1">
         <v>4</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G47" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>106</v>
+      <c r="A48" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="1">
-        <v>389</v>
+        <v>884</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G48" s="2">
         <v>100</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="1">
-        <v>884</v>
+        <v>389</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E49" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G49" s="2">
         <v>100</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" s="1">
-        <v>389</v>
+        <v>183</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E50" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="G50" s="2">
         <v>100</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1">
-        <v>183</v>
+        <v>449</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E51" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G51" s="2">
         <v>100</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C52" s="1">
-        <v>449</v>
+        <v>687</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E52" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="G52" s="2">
         <v>100</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2664,155 +2987,155 @@
         <v>118</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C53" s="1">
-        <v>687</v>
+        <v>176</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E53" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="G53" s="2">
         <v>100</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C54" s="1">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E54" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G54" s="2">
         <v>100</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C55" s="1">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E55" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="G55" s="2">
         <v>100</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C56" s="1">
-        <v>170</v>
+        <v>449</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E56" s="1">
-        <v>19</v>
+        <v>286</v>
+      </c>
+      <c r="E56" s="2">
+        <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="G56" s="2">
         <v>100</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C57" s="1">
-        <v>449</v>
+        <v>115</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E57" s="2">
-        <v>12</v>
+        <v>286</v>
+      </c>
+      <c r="E57" s="1">
+        <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="G57" s="2">
         <v>100</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C58" s="1">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E58" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="G58" s="2">
         <v>100</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2820,77 +3143,77 @@
         <v>130</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C59" s="1">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E59" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G59" s="2">
         <v>100</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C60" s="1">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E60" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G60" s="2">
         <v>100</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C61" s="1">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E61" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G61" s="2">
         <v>100</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2898,120 +3221,120 @@
         <v>135</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C62" s="1">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="G62" s="2">
         <v>100</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C63" s="1">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E63" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G63" s="2">
         <v>100</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" s="1">
-        <v>66</v>
+        <v>598</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E64" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="G64" s="2">
         <v>100</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C65" s="1">
-        <v>598</v>
+        <v>511</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E65" s="1">
         <v>9</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="G65" s="2">
         <v>100</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C66" s="1">
-        <v>511</v>
+        <v>147</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E66" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>255</v>
@@ -3020,830 +3343,830 @@
         <v>100</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C67" s="1">
-        <v>147</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>287</v>
+        <v>111</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="E67" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="2">
+        <v>100</v>
+      </c>
+      <c r="H67" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="G67" s="2">
-        <v>100</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C68" s="1">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E68" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G68" s="2">
         <v>100</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C69" s="1">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E69" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="G69" s="2">
         <v>100</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C70" s="1">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E70" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G70" s="2">
         <v>100</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C71" s="1">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E71" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71" s="2">
         <v>100</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C72" s="1">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E72" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2">
         <v>100</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C73" s="1">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E73" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73" s="2">
         <v>100</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C74" s="1">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E74" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="G74" s="2">
         <v>100</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C75" s="1">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E75" s="1">
-        <v>7</v>
+        <v>251</v>
+      </c>
+      <c r="E75" s="2">
+        <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="G75" s="2">
         <v>100</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C76" s="1">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E76" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G76" s="2">
         <v>100</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C77" s="1">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E77" s="2">
-        <v>12</v>
+        <v>251</v>
+      </c>
+      <c r="E77" s="1">
+        <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G77" s="2">
         <v>100</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C78" s="1">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E78" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G78" s="2">
         <v>100</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C79" s="1">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E79" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G79" s="2">
         <v>100</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C80" s="1">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E80" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="G80" s="2">
         <v>100</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C81" s="1">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E81" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G81" s="2">
         <v>100</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="C82" s="1">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E82" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="G82" s="2">
         <v>100</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C83" s="1">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E83" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="G83" s="2">
         <v>100</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C84" s="1">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E84" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G84" s="2">
         <v>100</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C85" s="1">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E85" s="1">
-        <v>9</v>
+        <v>251</v>
+      </c>
+      <c r="E85" s="2">
+        <v>21</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G85" s="2">
         <v>100</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C86" s="1">
-        <v>164</v>
-      </c>
-      <c r="D86" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E86" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G86" s="2">
         <v>100</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C87" s="1">
-        <v>108</v>
-      </c>
-      <c r="D87" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E87" s="2">
-        <v>21</v>
+      <c r="E87" s="1">
+        <v>5</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G87" s="2">
         <v>100</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="1">
         <v>185</v>
       </c>
-      <c r="C88" s="1">
-        <v>234</v>
-      </c>
       <c r="D88" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E88" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="G88" s="2">
         <v>100</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C89" s="1">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E89" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G89" s="2">
         <v>100</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C90" s="1">
         <v>185</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E90" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G90" s="2">
         <v>100</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C91" s="1">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E91" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G91" s="2">
         <v>100</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C92" s="1">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E92" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G92" s="2">
         <v>100</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" s="1">
         <v>192</v>
       </c>
-      <c r="C93" s="1">
-        <v>225</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E93" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G93" s="2">
         <v>100</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C94" s="1">
-        <v>247</v>
+        <v>411</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E94" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G94" s="2">
         <v>100</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C95" s="1">
-        <v>192</v>
+        <v>416</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E95" s="1">
-        <v>7</v>
+        <v>252</v>
+      </c>
+      <c r="E95" s="2">
+        <v>12</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G95" s="2">
         <v>100</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C96" s="1">
-        <v>411</v>
+        <v>259</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E96" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2">
         <v>100</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C97" s="1">
-        <v>416</v>
+        <v>266</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E97" s="2">
-        <v>12</v>
+        <v>252</v>
+      </c>
+      <c r="E97" s="1">
+        <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G97" s="2">
         <v>100</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C98" s="1">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E98" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>10</v>
@@ -3852,910 +4175,2021 @@
         <v>100</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C99" s="1">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E99" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G99" s="2">
         <v>100</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C100" s="1">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E100" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="G100" s="2">
         <v>100</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C101" s="1">
-        <v>249</v>
+        <v>127</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E101" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="G101" s="2">
         <v>100</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C102" s="1">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E102" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G102" s="2">
         <v>100</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C103" s="1">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E103" s="1">
+        <v>9</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="G103" s="2">
         <v>100</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C104" s="1">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E104" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G104" s="2">
         <v>100</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>210</v>
+      <c r="A105" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C105" s="1">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E105" s="1">
-        <v>9</v>
+        <v>252</v>
+      </c>
+      <c r="E105" s="2">
+        <v>32</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G105" s="2">
         <v>100</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C106" s="1">
-        <v>291</v>
-      </c>
-      <c r="D106" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>253</v>
       </c>
       <c r="E106" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G106" s="2">
         <v>100</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C107" s="1">
-        <v>275</v>
-      </c>
-      <c r="D107" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E107" s="2">
-        <v>32</v>
+      <c r="E107" s="1">
+        <v>5</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G107" s="2">
         <v>100</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
-        <v>213</v>
+      <c r="A108" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C108" s="1">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E108" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G108" s="2">
         <v>100</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C109" s="1">
-        <v>344</v>
+        <v>167</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E109" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G109" s="2">
         <v>100</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C110" s="1">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E110" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G110" s="2">
         <v>100</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C111" s="1">
-        <v>167</v>
+        <v>265</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E111" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G111" s="2">
         <v>100</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C112" s="1">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E112" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="G112" s="2">
         <v>100</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C113" s="1">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E113" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G113" s="2">
         <v>100</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C114" s="1">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E114" s="1">
+        <v>19</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="G114" s="2">
         <v>100</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C115" s="1">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E115" s="1">
-        <v>7</v>
+        <v>253</v>
+      </c>
+      <c r="E115" s="2">
+        <v>12</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="G115" s="2">
         <v>100</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C116" s="1">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E116" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="G116" s="2">
         <v>100</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C117" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E117" s="2">
-        <v>12</v>
+        <v>253</v>
+      </c>
+      <c r="E117" s="1">
+        <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2">
         <v>100</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C118" s="1">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E118" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="G118" s="2">
         <v>100</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C119" s="1">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E119" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" s="2">
+        <v>100</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" s="1">
+        <v>176</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E120" s="1">
         <v>10</v>
       </c>
-      <c r="G119" s="2">
-        <v>100</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C120" s="1">
-        <v>86</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E120" s="1">
-        <v>18</v>
-      </c>
       <c r="F120" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G120" s="2">
         <v>100</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C121" s="1">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E121" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G121" s="2">
         <v>100</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C122" s="1">
+        <v>151</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E122" s="1">
+        <v>13</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" s="2">
+        <v>100</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C122" s="1">
-        <v>176</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E122" s="1">
-        <v>10</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G122" s="2">
-        <v>100</v>
-      </c>
-      <c r="H122" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="C123" s="1">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E123" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G123" s="2">
         <v>100</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C124" s="1">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E124" s="1">
+        <v>9</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G124" s="2">
+        <v>100</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" s="1">
+        <v>110</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E125" s="1">
+        <v>23</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G125" s="2">
+        <v>100</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C126" s="13">
+        <v>899</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E126" s="9">
+        <v>65</v>
+      </c>
+      <c r="F126" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G126" s="9">
+        <v>100</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C127" s="9">
+        <v>999</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E127" s="9">
+        <v>42</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="9">
+        <v>100</v>
+      </c>
+      <c r="H127" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C128" s="9">
+        <v>649</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E128" s="9">
+        <v>55</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G128" s="9">
+        <v>100</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C129" s="9">
+        <v>849</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E129" s="9">
+        <v>33</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G129" s="9">
+        <v>100</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C130" s="13">
+        <v>699</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E130" s="9">
+        <v>28</v>
+      </c>
+      <c r="F130" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G130" s="9">
+        <v>100</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C131" s="15">
+        <v>1560</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E131" s="9">
+        <v>87</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="9">
+        <v>100</v>
+      </c>
+      <c r="H131" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C132" s="9">
+        <v>599</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E132" s="9">
+        <v>55</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="9">
+        <v>100</v>
+      </c>
+      <c r="H132" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C133" s="9">
+        <v>349</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E133" s="9">
+        <v>30</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G133" s="9">
+        <v>100</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C134" s="9">
+        <v>899</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E134" s="9">
+        <v>40</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="9">
+        <v>100</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C135" s="9">
+        <v>350</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E135" s="9">
+        <v>25</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G135" s="9">
+        <v>100</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C136" s="9">
+        <v>849</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E136" s="9">
+        <v>68</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G136" s="9">
+        <v>100</v>
+      </c>
+      <c r="H136" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C137" s="9">
+        <v>499</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E137" s="9">
+        <v>39</v>
+      </c>
+      <c r="F137" s="8">
+        <v>5</v>
+      </c>
+      <c r="G137" s="9">
+        <v>100</v>
+      </c>
+      <c r="H137" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C138" s="9">
+        <v>449</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E138" s="9">
+        <v>55</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="9">
+        <v>100</v>
+      </c>
+      <c r="H138" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C139" s="9">
+        <v>399</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E139" s="9">
+        <v>50</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="9">
+        <v>100</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C140" s="9">
+        <v>499</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E140" s="9">
+        <v>44</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G140" s="9">
+        <v>100</v>
+      </c>
+      <c r="H140" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C141" s="9">
+        <v>799</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E141" s="9">
+        <v>25</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="9">
+        <v>100</v>
+      </c>
+      <c r="H141" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C142" s="9">
+        <v>399</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E142" s="9">
+        <v>50</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G142" s="9">
+        <v>100</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C143" s="9">
+        <v>899</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E143" s="9">
+        <v>49</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="9">
+        <v>100</v>
+      </c>
+      <c r="H143" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C144" s="9">
+        <v>399</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E144" s="9">
+        <v>50</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="9">
+        <v>100</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C145" s="9">
+        <v>411</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E145" s="9">
+        <v>27</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G145" s="9">
+        <v>100</v>
+      </c>
+      <c r="H145" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C146" s="9">
+        <v>849</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E146" s="9">
+        <v>33</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="9">
+        <v>100</v>
+      </c>
+      <c r="H146" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C147" s="9">
+        <v>849</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E147" s="9">
+        <v>33</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G147" s="9">
+        <v>100</v>
+      </c>
+      <c r="H147" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C148" s="9">
+        <v>899</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E148" s="9">
+        <v>44</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G148" s="9">
+        <v>100</v>
+      </c>
+      <c r="H148" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C149" s="15">
+        <v>1200</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E149" s="9">
+        <v>54</v>
+      </c>
+      <c r="F149" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="G149" s="9">
+        <v>100</v>
+      </c>
+      <c r="H149" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C150" s="15">
+        <v>1200</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E150" s="9">
+        <v>54</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="9">
+        <v>100</v>
+      </c>
+      <c r="H150" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C151" s="9">
+        <v>748</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E151" s="9">
+        <v>60</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="9">
+        <v>100</v>
+      </c>
+      <c r="H151" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C152" s="9">
+        <v>849</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E152" s="9">
+        <v>37</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G152" s="9">
+        <v>100</v>
+      </c>
+      <c r="H152" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C153" s="9">
+        <v>999</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E153" s="9">
+        <v>50</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="9">
+        <v>100</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C154" s="9">
+        <v>449</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E154" s="9">
+        <v>55</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G154" s="9">
+        <v>100</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C155" s="9">
+        <v>999</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E155" s="9">
+        <v>42</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="9">
+        <v>100</v>
+      </c>
+      <c r="H155" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C156" s="15">
+        <v>2499</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E156" s="9">
+        <v>64</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="9">
+        <v>100</v>
+      </c>
+      <c r="H156" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C157" s="15">
+        <v>3999</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E157" s="9">
+        <v>55</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="9">
+        <v>100</v>
+      </c>
+      <c r="H157" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C158" s="13">
+        <v>2299</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E158" s="9">
         <v>13</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G124" s="2">
-        <v>100</v>
-      </c>
-      <c r="H124" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C125" s="1">
-        <v>288</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E125" s="1">
-        <v>9</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="2">
-        <v>100</v>
-      </c>
-      <c r="H125" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C126" s="1">
-        <v>323</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E126" s="1">
-        <v>9</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G126" s="2">
-        <v>100</v>
-      </c>
-      <c r="H126" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C127" s="1">
-        <v>110</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E127" s="1">
-        <v>23</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G127" s="2">
-        <v>100</v>
-      </c>
-      <c r="H127" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-    </row>
-    <row r="130" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-    </row>
-    <row r="131" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-    </row>
-    <row r="132" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-    </row>
-    <row r="133" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="7"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-    </row>
-    <row r="134" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-    </row>
-    <row r="135" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-    </row>
-    <row r="136" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-    </row>
-    <row r="137" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-    </row>
-    <row r="138" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-    </row>
-    <row r="139" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="7"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-    </row>
-    <row r="140" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-    </row>
-    <row r="141" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-    </row>
-    <row r="142" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="7"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-    </row>
-    <row r="143" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-    </row>
-    <row r="144" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-    </row>
-    <row r="145" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-    </row>
-    <row r="146" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-    </row>
-    <row r="147" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-    </row>
-    <row r="148" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="7"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
+      <c r="F158" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G158" s="9">
+        <v>100</v>
+      </c>
+      <c r="H158" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C159" s="15">
+        <v>5990</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E159" s="9">
+        <v>74</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="9">
+        <v>100</v>
+      </c>
+      <c r="H159" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C160" s="15">
+        <v>2499</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E160" s="9">
+        <v>64</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G160" s="9">
+        <v>100</v>
+      </c>
+      <c r="H160" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C161" s="15">
+        <v>2999</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E161" s="9">
+        <v>70</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G161" s="9">
+        <v>100</v>
+      </c>
+      <c r="H161" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C162" s="15">
+        <v>2999</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E162" s="9">
+        <v>50</v>
+      </c>
+      <c r="F162" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G162" s="9">
+        <v>100</v>
+      </c>
+      <c r="H162" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C163" s="15">
+        <v>1599</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E163" s="9">
+        <v>68</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="9">
+        <v>100</v>
+      </c>
+      <c r="H163" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C164" s="9">
+        <v>799</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E164" s="9">
+        <v>25</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="9">
+        <v>100</v>
+      </c>
+      <c r="H164" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C165" s="15">
+        <v>5249</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E165" s="9">
+        <v>90</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G165" s="9">
+        <v>100</v>
+      </c>
+      <c r="H165" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C166" s="15">
+        <v>2499</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E166" s="9">
+        <v>64</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="9">
+        <v>100</v>
+      </c>
+      <c r="H166" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C167" s="15">
+        <v>2999</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E167" s="9">
+        <v>50</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G167" s="9">
+        <v>100</v>
+      </c>
+      <c r="H167" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C168" s="15">
+        <v>2299</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E168" s="9">
+        <v>13</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="9">
+        <v>100</v>
+      </c>
+      <c r="H168" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C169" s="15">
+        <v>1599</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E169" s="9">
+        <v>68</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="9">
+        <v>100</v>
+      </c>
+      <c r="H169" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C170" s="15">
+        <v>2999</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E170" s="9">
+        <v>73</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="9">
+        <v>100</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C171" s="15">
+        <v>4999</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E171" s="9">
+        <v>40</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="9">
+        <v>100</v>
+      </c>
+      <c r="H171" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C172" s="15">
+        <v>2499</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E172" s="9">
+        <v>48</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="9">
+        <v>100</v>
+      </c>
+      <c r="H172" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C173" s="15">
+        <v>5990</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E173" s="9">
+        <v>74</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G173" s="9">
+        <v>100</v>
+      </c>
+      <c r="H173" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C174" s="9">
+        <v>599</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E174" s="9">
+        <v>16</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="9">
+        <v>100</v>
+      </c>
+      <c r="H174" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175"/>
+      <c r="B175" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C175" s="15">
+        <v>4999</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E175" s="9">
+        <v>40</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G175" s="9">
+        <v>100</v>
+      </c>
+      <c r="H175" s="14" t="s">
+        <v>390</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A48" r:id="rId1"/>
-    <hyperlink ref="A108" r:id="rId2"/>
-    <hyperlink ref="A123" r:id="rId3"/>
+    <hyperlink ref="A47" r:id="rId1"/>
+    <hyperlink ref="A105" r:id="rId2"/>
+    <hyperlink ref="A120" r:id="rId3"/>
+    <hyperlink ref="A125" r:id="rId4"/>
+    <hyperlink ref="A135" r:id="rId5"/>
+    <hyperlink ref="A145" r:id="rId6"/>
+    <hyperlink ref="A155" r:id="rId7"/>
+    <hyperlink ref="A165" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>